--- a/biology/Médecine/Hôpital_militaire/Hôpital_militaire.xlsx
+++ b/biology/Médecine/Hôpital_militaire/Hôpital_militaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire</t>
+          <t>Hôpital_militaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hôpital militaire est un hôpital sous tutelle d'une armée ou d'un ministère des Armées et dont la vocation première est de soigner les militaires et anciens militaires. Ils sont établis en ville ou sur une base militaire et aussi à proximité du champ de bataille. Les hôpitaux de marine sont généralement situés dans des villes côtières. Des hôpitaux mobiles sont aménagés sur les navires-hôpitaux en mer.
 Certains civils sont envoyés en hôpital militaire pour des blessures similaires aux blessures de guerre.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire</t>
+          <t>Hôpital_militaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Afrique du Nord
-Hôpital militaire d'Aïn Naadja à Alger (Algérie)
+          <t>Afrique du Nord</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hôpital militaire d'Aïn Naadja à Alger (Algérie)
 Hôpital militaire Mohammed V de Rabat
 Hôpital militaire de Tunis
-Hôpital militaire de Marsa Matruh (Égypte)
-Afrique subsaharienne
-Hôpital militaire d'Abidjan
+Hôpital militaire de Marsa Matruh (Égypte)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hôpital_militaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_militaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Afrique subsaharienne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hôpital militaire d'Abidjan
 Hôpital principal de Dakar
 Hôpital central des armées Pierre Mobengo, Brazzaville
 Hôpital militaire d'Antsiranana (Diego Suarez), Madagascar
@@ -528,44 +579,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_militaire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_militaire</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Asie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Afghanistan
-Hôpital militaire Daoud Khan</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_militaire</t>
+          <t>Hôpital_militaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,22 +600,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hôpital militaire Daoud Khan</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_militaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_militaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hôpital Queen Elizabeth de Birmingham au Royaume-Uni.
 Hôpital central de la défense Gómez Ulla à Aluche en Espagne.
 Polyclinique militaire Celio à Rome en Italie.
-Centre médical régional de Landstuhl ou Landstuhl Regional Medical Center (LRMC), hôpital de l'US Army en Allemagne.
-Belgique
-Hôpital militaire Reine Astrid de Neder-Over-Heembeek (Bruxelles)
-Hôpital militaire Saint-Laurent à Liège (voir Abbaye Saint-Laurent de Liège)
-France
-En France, les hôpitaux de la Marine et les hôpitaux de l'Armée ont été regroupés sous la dénomination d'hôpitaux d'instruction des armées (HIA). Ils dépendent du Service de santé des armées.
-Anciens hôpitaux militaires
-en Métropole et outre-mer
+Centre médical régional de Landstuhl ou Landstuhl Regional Medical Center (LRMC), hôpital de l'US Army en Allemagne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_militaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_militaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hôpital militaire Reine Astrid de Neder-Over-Heembeek (Bruxelles)
+Hôpital militaire Saint-Laurent à Liège (voir Abbaye Saint-Laurent de Liège)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hôpital_militaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_militaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les hôpitaux de la Marine et les hôpitaux de l'Armée ont été regroupés sous la dénomination d'hôpitaux d'instruction des armées (HIA). Ils dépendent du Service de santé des armées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hôpital_militaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_militaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Anciens hôpitaux militaires</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>en Métropole et outre-mer
 Auvergne-Rhône-Alpes
 Hôpital des armées Émile-Pardé à Grenoble
 Hôpital militaire Villemanzy à Lyon
@@ -615,15 +780,15 @@
 Hôpital militaire et bourgeois de Haguenau
 Hôpital militaire de Mulhouse, structure temporaire ayant fonctionné pendant la pandémie de Covid-19
 Hôpital Sédillot à Nancy
-Hôpital militaire de Sarrebourg : devenu infirmerie de garnison puis démolition de certains bâtiments en 2012[1]
+Hôpital militaire de Sarrebourg : devenu infirmerie de garnison puis démolition de certains bâtiments en 2012
 Hôpital militaire Gaujot de Strasbourg, devenu une cité administrative en 1946
-Hôpital militaire Lyautey de Strasbourg : 415e hôpital chirurgical d'évacuation mobile en 1945 puis hôpital des armées, hôpital régional des armées en 1980, centre hospitalier des armées en 1986[2], fermeture en 1999
+Hôpital militaire Lyautey de Strasbourg : 415e hôpital chirurgical d'évacuation mobile en 1945 puis hôpital des armées, hôpital régional des armées en 1980, centre hospitalier des armées en 1986, fermeture en 1999
 Hôpital militaire de Toul
 Hauts-de-France
 Hôpital des armées Scrive à Lille
 Île-de-France
 Hôpital Villemin à Paris
-HIA Val-de-Grâce à Paris, fermé en 2016[3]
+HIA Val-de-Grâce à Paris, fermé en 2016
 Centre hospitalier de Saint-Denis
 Hôpital d'instruction des armées Dominique-Jean Larrey à Versailles
 Hôpital militaire de Vincennes
@@ -657,9 +822,47 @@
 Fribourg-en-Brisgau : hôpital Alain-Limouzin.
 Landau : hôpital Émile-Fournier.
 Trèves : hôpital André Genet.
-Tübingen : hôpital Émile-Roux.
-Hôpitaux militaires actuels
-En 2018, il existe en France huit hôpitaux d'instruction des armées :
+Tübingen : hôpital Émile-Roux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hôpital_militaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_militaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hôpitaux militaires actuels</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, il existe en France huit hôpitaux d'instruction des armées :
 HIA Legouest à Metz (Moselle)
 HIA Bégin à Saint-Mandé (Val-de-Marne)
 HIA Percy à Clamart (Hauts-de-Seine)
@@ -670,37 +873,74 @@
 HIA Sainte-Anne à Toulon (Var).
 Les armées françaises disposent également d'une structure sanitaire quasiment comparable à un hôpital à Djibouti : le groupement médico-chirurgical de Bouffard.
 Par ailleurs, depuis juillet 2009, une structure hospitalière militaire multinationale fonctionne près de Kaboul en Afghanistan, avec un équipement et une direction relevant du Service de santé des armées françaises.
-Les hôpitaux militaires ne sont plus[Depuis quand ?] réservés aux militaires et aux patients liés aux activités militaires : ils accueillent maintenant[Quand ?] tous les assurés sociaux civils. En 2009, les hôpitaux militaires des armées étaient dotés d'un budget total de 800 millions et ont réalisé un déficit de 281 millions d’euros[4]. L'article 11 de la loi n°2002-73 du 17 janvier 2002 dite de modernisation sociale a véritablement formalisé cette ouverture vers le secteur civil : « outre leur mission prioritaire de soutien sanitaire des forces armées [... les HIA] concourent au service public hospitalier » et « dispensent des soins remboursables aux assurés sociaux ». Cette ouverture était déjà en partie effective du fait de la fin de l'armée de circonscription obligeant budgétairement l'Armée a étendre son activité médicale à une population plus large et parce que certains hôpitaux militaires étaient largement ouverts au secteur civil, par exemple dans le domaine de l'urgence, jusqu'à servir de référent dans des spécialités particulières telles que les brûlés : ainsi, l'hôpital Sainte-Anne de Toulon, disposait antérieurement du seul service de neurochirurgie du Var et était à ce titre un support incontournable du service public [réf. https://www.assemblee-nationale.fr/12/rap-info/i0335.asp#P402_68040]
-Russie
-Hôpital militaire Nikolaï Bourdenko à Moscou.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_militaire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_militaire</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Les hôpitaux militaires ne sont plus[Depuis quand ?] réservés aux militaires et aux patients liés aux activités militaires : ils accueillent maintenant[Quand ?] tous les assurés sociaux civils. En 2009, les hôpitaux militaires des armées étaient dotés d'un budget total de 800 millions et ont réalisé un déficit de 281 millions d’euros. L'article 11 de la loi n°2002-73 du 17 janvier 2002 dite de modernisation sociale a véritablement formalisé cette ouverture vers le secteur civil : « outre leur mission prioritaire de soutien sanitaire des forces armées [... les HIA] concourent au service public hospitalier » et « dispensent des soins remboursables aux assurés sociaux ». Cette ouverture était déjà en partie effective du fait de la fin de l'armée de circonscription obligeant budgétairement l'Armée a étendre son activité médicale à une population plus large et parce que certains hôpitaux militaires étaient largement ouverts au secteur civil, par exemple dans le domaine de l'urgence, jusqu'à servir de référent dans des spécialités particulières telles que les brûlés : ainsi, l'hôpital Sainte-Anne de Toulon, disposait antérieurement du seul service de neurochirurgie du Var et était à ce titre un support incontournable du service public [réf. https://www.assemblee-nationale.fr/12/rap-info/i0335.asp#P402_68040]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hôpital_militaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_militaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Russie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hôpital militaire Nikolaï Bourdenko à Moscou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hôpital_militaire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_militaire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>WRAMC, Centre national médical militaire Walter-Reed à Bethesda (Maryland).
 Centre médical militaire Womack à Fort Bragg (Caroline du Nord).
